--- a/exposan/pm2/data/initial_conditions.xlsx
+++ b/exposan/pm2/data/initial_conditions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\eco_recovery_system\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Downloads\EXPOsan\exposan\pm2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6738E75-4DAE-4C9F-9E44-5D89A5C74E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC06CA6-8F43-4891-B260-DA56311AABA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{32702723-0D76-4F6C-A6A7-E56FCE88CE75}"/>
   </bookViews>
@@ -125,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -446,7 +447,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B2" sqref="B2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,17 +498,16 @@
         <v>14</v>
       </c>
       <c r="B2" s="2">
-        <f>420*0.005</f>
-        <v>2.1</v>
+        <v>2.3059157484625543</v>
       </c>
       <c r="C2" s="2">
-        <v>420</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
+        <v>461.18314969251088</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.34256759584221</v>
+      </c>
+      <c r="E2" s="2">
+        <v>59.575589993722659</v>
       </c>
       <c r="F2" s="2">
         <v>30</v>
@@ -519,22 +519,22 @@
         <v>5</v>
       </c>
       <c r="I2" s="2">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.32</v>
+        <v>5</v>
+      </c>
+      <c r="J2" s="2">
+        <v>35.804091914690737</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.35744154249956261</v>
       </c>
       <c r="M2" s="2">
-        <v>50</v>
+        <v>2.9438525027726499</v>
       </c>
       <c r="N2" s="2">
-        <v>10</v>
+        <v>10.547107200194688</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -542,17 +542,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <f>420*0.005</f>
-        <v>2.1</v>
+        <v>2.3059157484625543</v>
       </c>
       <c r="C3" s="2">
-        <v>420</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
+        <v>461.18314969251088</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11.34256759584221</v>
+      </c>
+      <c r="E3" s="2">
+        <v>59.575589993722659</v>
       </c>
       <c r="F3" s="2">
         <v>30</v>
@@ -564,22 +563,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.32</v>
+        <v>5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>35.804091914690737</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.35744154249956261</v>
       </c>
       <c r="M3" s="2">
-        <v>50</v>
+        <v>2.9438525027726499</v>
       </c>
       <c r="N3" s="2">
-        <v>10</v>
+        <v>10.547107200194688</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -587,20 +586,16 @@
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <f>420*0.005*1.67</f>
-        <v>3.5070000000000001</v>
+        <v>2.3059157484625543</v>
       </c>
       <c r="C4" s="2">
-        <f>420*1.67</f>
-        <v>701.4</v>
-      </c>
-      <c r="D4" s="1">
-        <f>D2*1.67</f>
-        <v>7.0140000000000002</v>
-      </c>
-      <c r="E4" s="1">
-        <f>E2*1.67</f>
-        <v>1.67</v>
+        <v>461.18314969251088</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11.34256759584221</v>
+      </c>
+      <c r="E4" s="2">
+        <v>59.575589993722659</v>
       </c>
       <c r="F4" s="2">
         <v>30</v>
@@ -612,24 +607,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="2">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.32</v>
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>35.804091914690737</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.35744154249956261</v>
       </c>
       <c r="M4" s="2">
-        <f>M2*1.67</f>
-        <v>83.5</v>
+        <v>2.9438525027726499</v>
       </c>
       <c r="N4" s="2">
-        <f>N2*1.67</f>
-        <v>16.7</v>
+        <v>10.547107200194688</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -637,20 +630,16 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <f>420*0.005*1.67</f>
-        <v>3.5070000000000001</v>
+        <v>2.3059157484625543</v>
       </c>
       <c r="C5" s="2">
-        <f>420*1.67</f>
-        <v>701.4</v>
-      </c>
-      <c r="D5" s="1">
-        <f>D3*1.67</f>
-        <v>7.0140000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <f>E3*1.67</f>
-        <v>1.67</v>
+        <v>461.18314969251088</v>
+      </c>
+      <c r="D5" s="2">
+        <v>11.342567595842199</v>
+      </c>
+      <c r="E5" s="2">
+        <v>59.575589993722659</v>
       </c>
       <c r="F5" s="2">
         <v>30</v>
@@ -662,40 +651,38 @@
         <v>5</v>
       </c>
       <c r="I5" s="2">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.32</v>
+        <v>5</v>
+      </c>
+      <c r="J5" s="2">
+        <v>35.804091914690737</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.35744154249956261</v>
       </c>
       <c r="M5" s="2">
-        <f>M3*1.67</f>
-        <v>83.5</v>
+        <v>2.9438525027726499</v>
       </c>
       <c r="N5" s="2">
-        <f>N3*1.67</f>
-        <v>16.7</v>
+        <v>10.547107200194688</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
